--- a/data/2010_data.xlsx
+++ b/data/2010_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_D5EE9DD04C71ADDE16160BCEE3DFE80B512F492F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D49233D7-F1C9-49BF-B922-3B2E6D8106F4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="276">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,556 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Need You Now</t>
   </si>
   <si>
+    <t>Hey, Soul Sister</t>
+  </si>
+  <si>
+    <t>California Gurls</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Airplanes</t>
+  </si>
+  <si>
+    <t>Love The Way You Lie</t>
+  </si>
+  <si>
+    <t>Bad Romance</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>Break Your Heart</t>
+  </si>
+  <si>
+    <t>Nothin' On You</t>
+  </si>
+  <si>
+    <t>I Like It</t>
+  </si>
+  <si>
+    <t>BedRock</t>
+  </si>
+  <si>
+    <t>In My Head</t>
+  </si>
+  <si>
+    <t>Rude Boy</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Teenage Dream</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Cooler Than Me</t>
+  </si>
+  <si>
+    <t>Imma Be</t>
+  </si>
+  <si>
+    <t>Empire State Of Mind</t>
+  </si>
+  <si>
+    <t>DJ Got Us Fallin' In Love</t>
+  </si>
+  <si>
+    <t>Billionaire</t>
+  </si>
+  <si>
+    <t>Not Afraid</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>Sexy Chick</t>
+  </si>
+  <si>
+    <t>Breakeven</t>
+  </si>
+  <si>
+    <t>Your Love Is My Drug</t>
+  </si>
+  <si>
+    <t>I Gotta Feeling</t>
+  </si>
+  <si>
+    <t>Fireflies</t>
+  </si>
+  <si>
+    <t>Say Aah</t>
+  </si>
+  <si>
+    <t>Find Your Love</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Ridin' Solo</t>
+  </si>
+  <si>
+    <t>Just A Dream</t>
+  </si>
+  <si>
+    <t>How Low</t>
+  </si>
+  <si>
+    <t>Like A G6</t>
+  </si>
+  <si>
+    <t>Carry Out</t>
+  </si>
+  <si>
+    <t>Haven't Met You Yet</t>
+  </si>
+  <si>
+    <t>Club Can't Handle Me</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Bulletproof</t>
+  </si>
+  <si>
+    <t>Whatcha Say</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Whataya Want From Me</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Only Girl (In The World)</t>
+  </si>
+  <si>
+    <t>Live Like We're Dying</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Young Forever</t>
+  </si>
+  <si>
+    <t>Blah Blah Blah</t>
+  </si>
+  <si>
+    <t>Bottoms Up</t>
+  </si>
+  <si>
+    <t>Do You Remember</t>
+  </si>
+  <si>
+    <t>All The Right Moves</t>
+  </si>
+  <si>
+    <t>According To You</t>
+  </si>
+  <si>
+    <t>My Chick Bad</t>
+  </si>
+  <si>
+    <t>You Belong With Me</t>
+  </si>
+  <si>
+    <t>Meet Me Halfway</t>
+  </si>
+  <si>
+    <t>Take It Off</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Misery</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Paparazzi</t>
+  </si>
+  <si>
+    <t>Tie Me Down</t>
+  </si>
+  <si>
+    <t>Your Love</t>
+  </si>
+  <si>
+    <t>Party In The U.S.A.</t>
+  </si>
+  <si>
+    <t>Deuces</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Impossible</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>Two Is Better Than One</t>
+  </si>
+  <si>
+    <t>My First Kiss</t>
+  </si>
+  <si>
+    <t>Already Gone</t>
+  </si>
+  <si>
+    <t>Rock That Body</t>
+  </si>
+  <si>
+    <t>Secrets</t>
+  </si>
+  <si>
+    <t>Naturally</t>
+  </si>
+  <si>
+    <t>Un-Thinkable (I'm Ready)</t>
+  </si>
+  <si>
+    <t>All I Do Is Win</t>
+  </si>
+  <si>
+    <t>I Made It (Cash Money Heroes)</t>
+  </si>
+  <si>
+    <t>Stuck Like Glue</t>
+  </si>
+  <si>
+    <t>Hey Daddy (Daddy's Home)</t>
+  </si>
+  <si>
+    <t>There Goes My Baby</t>
+  </si>
+  <si>
+    <t>Today Was A Fairytale</t>
+  </si>
+  <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>Sweet Dreams</t>
+  </si>
+  <si>
+    <t>Use Somebody</t>
+  </si>
+  <si>
+    <t>Undo It</t>
+  </si>
+  <si>
+    <t>Eenie Meenie</t>
+  </si>
+  <si>
+    <t>Right Above It</t>
+  </si>
+  <si>
+    <t>The House That Built Me</t>
+  </si>
+  <si>
+    <t>If I Die Young</t>
+  </si>
+  <si>
+    <t>The Only Exception</t>
+  </si>
+  <si>
+    <t>American Honey</t>
+  </si>
+  <si>
+    <t>King Of Anything</t>
+  </si>
+  <si>
+    <t>Life After You</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Teach Me How To Dougie</t>
+  </si>
+  <si>
+    <t>Try Sleeping With A Broken Heart</t>
+  </si>
+  <si>
+    <t>Lover, Lover</t>
+  </si>
+  <si>
     <t>Lady Antebellum</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Katy Perry Featuring Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Usher Featuring will.i.am</t>
+  </si>
+  <si>
+    <t>B.o.B Featuring Hayley Williams</t>
+  </si>
+  <si>
+    <t>Eminem Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Taio Cruz</t>
+  </si>
+  <si>
+    <t>Taio Cruz Featuring Ludacris</t>
+  </si>
+  <si>
+    <t>B.o.B Featuring Bruno Mars</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias Featuring Pitbull</t>
+  </si>
+  <si>
+    <t>Young Money Featuring Lloyd</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Lady Gaga Featuring Beyonce</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Mike Posner</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Jay-Z + Alicia Keys</t>
+  </si>
+  <si>
+    <t>Usher Featuring Pitbull</t>
+  </si>
+  <si>
+    <t>Travie McCoy Featuring Bruno Mars</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Iyaz</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Akon</t>
+  </si>
+  <si>
+    <t>The Script</t>
+  </si>
+  <si>
+    <t>Ke$ha</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Trey Songz Featuring Fabolous</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Ludacris</t>
+  </si>
+  <si>
+    <t>Far*East Movement Featuring Cataracs &amp; Dev</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Michael Buble</t>
+  </si>
+  <si>
+    <t>Flo Rida Featuring David Guetta</t>
+  </si>
+  <si>
+    <t>Jay Sean Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>La Roux</t>
+  </si>
+  <si>
+    <t>Justin Bieber Featuring Ludacris</t>
+  </si>
+  <si>
+    <t>Adam Lambert</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Kris Allen</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Jeezy</t>
+  </si>
+  <si>
+    <t>Jay-Z + Mr. Hudson</t>
+  </si>
+  <si>
+    <t>Ke$ha Featuring 3OH!3</t>
+  </si>
+  <si>
+    <t>Trey Songz Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Jay Sean Featuring Sean Paul &amp; Lil Jon</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Orianthi</t>
+  </si>
+  <si>
+    <t>Ludacris Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Neon Trees</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>B.o.B Featuring Rivers Cuomo</t>
+  </si>
+  <si>
+    <t>New Boyz Featuring Ray J</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Tyga &amp; Kevin McCall</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Shontelle</t>
+  </si>
+  <si>
+    <t>Drake Featuring Kanye West, Lil Wayne &amp; Eminem</t>
+  </si>
+  <si>
+    <t>Boys Like Girls Featuring Taylor Swift</t>
+  </si>
+  <si>
+    <t>3OH!3 Featuring Ke$ha</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Selena Gomez &amp; The Scene</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>DJ Khaled Featuring T-Pain, Ludacris, Snoop Dogg &amp; Rick Ross</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf Featuring Birdman, Jay Sean, &amp; Lil Wayne</t>
+  </si>
+  <si>
+    <t>Sugarland</t>
+  </si>
+  <si>
+    <t>Usher Featuring Plies</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring Drake</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Kings Of Leon</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Sean Kingston &amp; Justin Bieber</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Drake</t>
+  </si>
+  <si>
+    <t>Miranda Lambert</t>
+  </si>
+  <si>
+    <t>The Band Perry</t>
+  </si>
+  <si>
+    <t>Paramore</t>
+  </si>
+  <si>
+    <t>Sara Bareilles</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>Uncle Kracker</t>
+  </si>
+  <si>
+    <t>Cali Swag District</t>
+  </si>
+  <si>
+    <t>Jerrod Niemann</t>
   </si>
   <si>
     <t>Picture perfect memories
@@ -63,12 +615,6 @@
 I just need you now
 I just need you now
 Oh, baby, I need you now</t>
-  </si>
-  <si>
-    <t>Hey, Soul Sister</t>
-  </si>
-  <si>
-    <t>Train</t>
   </si>
   <si>
     <t>Hey, hey
@@ -122,12 +668,6 @@
 Hey, hey
 Hey, hey, hey, hey
 Hey, hey, hey, hey (Tonight)</t>
-  </si>
-  <si>
-    <t>California Gurls</t>
-  </si>
-  <si>
-    <t>Katy Perry Featuring Snoop Dogg</t>
   </si>
   <si>
     <t>Greetings, loved ones
@@ -208,12 +748,6 @@
 California girls</t>
   </si>
   <si>
-    <t>OMG</t>
-  </si>
-  <si>
-    <t>Usher Featuring will.i.am</t>
-  </si>
-  <si>
     <t>Oh my gosh
 Baby let me-
 I did it again, so I'ma let the beat dropOh myy-
@@ -286,18 +820,6 @@
 Oh my gosh</t>
   </si>
   <si>
-    <t>Airplanes</t>
-  </si>
-  <si>
-    <t>B.o.B Featuring Hayley Williams</t>
-  </si>
-  <si>
-    <t>Love The Way You Lie</t>
-  </si>
-  <si>
-    <t>Eminem Featuring Rihanna</t>
-  </si>
-  <si>
     <t>Just gonna stand there and watch me burn
 But that's alright because I like the way it hurts
 Just gonna stand there and hear me cryBut that's alright because I love the way you lie
@@ -368,12 +890,6 @@
 But that's alright because I love the way you lie
 I love the way you lie
 I love the way you lie</t>
-  </si>
-  <si>
-    <t>Bad Romance</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
   </si>
   <si>
     <t>Oh-oh-oh-oh-oooh
@@ -476,12 +992,6 @@
 Want your bad romance</t>
   </si>
   <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Taio Cruz</t>
-  </si>
-  <si>
     <t>I-I-I-I-I-I
 I came to dance, dance, dance, danceI hit the floor 'cause that's my plans, plans, plans, plans
 I'm wearing all my favorite brands, brands, brands, brands
@@ -524,12 +1034,6 @@
 We gon' light it up like it's dynamite
 'Cause I told you once, now I told you twice
 We gon' light it up like it's dynamite</t>
-  </si>
-  <si>
-    <t>Break Your Heart</t>
-  </si>
-  <si>
-    <t>Taio Cruz Featuring Ludacris</t>
   </si>
   <si>
     <t>Whoa, whoa
@@ -575,18 +1079,6 @@
 I'm only gonna break, break your, break, break your heart
 I'm only gonna break, break your, break, break your heart
 Whoa, whoa, whoa, whoa</t>
-  </si>
-  <si>
-    <t>Nothin' On You</t>
-  </si>
-  <si>
-    <t>B.o.B Featuring Bruno Mars</t>
-  </si>
-  <si>
-    <t>I Like It</t>
-  </si>
-  <si>
-    <t>Enrique Iglesias Featuring Pitbull</t>
   </si>
   <si>
     <t>One love, one love
@@ -663,12 +1155,6 @@
 Party, Karamu, fiesta, forever
 Oh yes I like it!
 Party, karamu, fiesta, forever</t>
-  </si>
-  <si>
-    <t>BedRock</t>
-  </si>
-  <si>
-    <t>Young Money Featuring Lloyd</t>
   </si>
   <si>
     <t>I-I-I-I can make your bed rock (Young Money)
@@ -762,12 +1248,6 @@
 (Ooh) I-I-I-I can make your bed rock (Ayy!)</t>
   </si>
   <si>
-    <t>In My Head</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
-  </si>
-  <si>
     <t>Jason Derulo
 Beluga Heights
 J-j-j-j-j, RC'mon
@@ -837,12 +1317,6 @@
 In My Head, it's going down
 In My Head, it's going down
 It's going down In My Head</t>
-  </si>
-  <si>
-    <t>Rude Boy</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>Come here rude boy, boy, can you get it up?
@@ -918,12 +1392,6 @@
 Love me, love me (Yeah)
 Take it, take it, baby, baby
 Take it, take it, love me, love me</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Lady Gaga Featuring Beyonce</t>
   </si>
   <si>
     <t>Hello, hello, baby
@@ -1010,12 +1478,6 @@
 We're sorry (we're sorry)
 The number you have reached is not in service at this time
 Please check the number, or try your call again</t>
-  </si>
-  <si>
-    <t>Teenage Dream</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
   </si>
   <si>
     <t>You think I'm pretty
@@ -1109,12 +1571,6 @@
 (Tonight, tonight, tonight, tonight, tonight, tonight)</t>
   </si>
   <si>
-    <t>Just The Way You Are</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
     <t>Oh, her eyes, her eyes
 Make the stars look like they're not shinin'
 Her hair, her hairFalls perfectly without her trying
@@ -1170,12 +1626,6 @@
 Yeah</t>
   </si>
   <si>
-    <t>Cooler Than Me</t>
-  </si>
-  <si>
-    <t>Mike Posner</t>
-  </si>
-  <si>
     <t>If I could write you a song to make you fall in love
 I would already have you up under my arm
 I used up all my tricks, I hope that you like thisBut, you probably won't, you think you're cooler than me
@@ -1219,12 +1669,6 @@
 And you wear 'em around like you're cooler than me
 And you never say hey, or remember my name
 And it's probably 'cause you think you're cooler than me</t>
-  </si>
-  <si>
-    <t>Imma Be</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas</t>
   </si>
   <si>
     <t>Imma be, Imma be, Imma Imma Imma be
@@ -1333,12 +1777,6 @@
 Imma be, Imma be, Imma be, Imma be</t>
   </si>
   <si>
-    <t>Empire State Of Mind</t>
-  </si>
-  <si>
-    <t>Jay-Z + Alicia Keys</t>
-  </si>
-  <si>
     <t>Yeah
 Yeah, I'm up at BrooklynNow I'm down in Tribeca
 Right next to DeNiro
@@ -1443,12 +1881,6 @@
 Let's hear it for New York, New York, New York</t>
   </si>
   <si>
-    <t>DJ Got Us Fallin' In Love</t>
-  </si>
-  <si>
-    <t>Usher Featuring Pitbull</t>
-  </si>
-  <si>
     <t>Usher (yeah, man)
 So we back in the clubWith our bodies rockin' from side to side
 Si-side to side
@@ -1525,12 +1957,6 @@
 The DJ got us falling in love again</t>
   </si>
   <si>
-    <t>Billionaire</t>
-  </si>
-  <si>
-    <t>Travie McCoy Featuring Bruno Mars</t>
-  </si>
-  <si>
     <t>I wanna be a billionaire so freakin' bad
 Buy all of the things I never had
 I wanna be on the cover of Forbes magazineSmiling next to Oprah and the Queen
@@ -1575,12 +2001,6 @@
 Oh-oh, oh-oh (sing it) when I'm a billionaire
 Oh-oh, oh-oh (oh)
 I wanna be a billionaire so freakin' bad</t>
-  </si>
-  <si>
-    <t>Not Afraid</t>
-  </si>
-  <si>
-    <t>Eminem</t>
   </si>
   <si>
     <t>You can try and read my lyrics off of this paper before I lay 'em
@@ -1666,12 +2086,6 @@
 Holla if you feel that you've been down the same road</t>
   </si>
   <si>
-    <t>Replay</t>
-  </si>
-  <si>
-    <t>Iyaz</t>
-  </si>
-  <si>
     <t>Shawty's like a melody in my head
 That I can't keep out, got me singin' like
 Na na na na everydayIt's like my iPod's stuck on replay
@@ -1752,18 +2166,6 @@
 Replay-ay-ay-ay</t>
   </si>
   <si>
-    <t>Sexy Chick</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Akon</t>
-  </si>
-  <si>
-    <t>Breakeven</t>
-  </si>
-  <si>
-    <t>The Script</t>
-  </si>
-  <si>
     <t>I'm still alive but I'm barely breathing
 Just prayed to a God that I don't believe in
 'Cause I got time while she got freedom'Cause when a heart breaks, no, it don't breakeven
@@ -1820,12 +2222,6 @@
 Oh, it don't breakeven, no</t>
   </si>
   <si>
-    <t>Your Love Is My Drug</t>
-  </si>
-  <si>
-    <t>Ke$ha</t>
-  </si>
-  <si>
     <t>Maybe I need some rehab
 Or maybe just need some sleep
 I got a sick obsessionI'm seeing it in my dreams
@@ -1877,9 +2273,6 @@
 Hey, hey, so
 Your love, your love, your love, your love is my drug
 I like your beard</t>
-  </si>
-  <si>
-    <t>I Gotta Feeling</t>
   </si>
   <si>
     <t>I gotta feeling, that tonight's gonna be a good night
@@ -1945,12 +2338,6 @@
 That tonight's gonna be a good, good night (Woohoo)</t>
   </si>
   <si>
-    <t>Fireflies</t>
-  </si>
-  <si>
-    <t>Owl City</t>
-  </si>
-  <si>
     <t>You would not believe your eyes
 If ten million fireflies
 Lit up the world as I fell asleep'Cause they'd fill the open air
@@ -1998,18 +2385,6 @@
 That planet Earth turns slowly
 It's hard to say that I'd rather stay awake when I'm asleep
 Because my dreams are bursting at the seams</t>
-  </si>
-  <si>
-    <t>Say Aah</t>
-  </si>
-  <si>
-    <t>Trey Songz Featuring Fabolous</t>
-  </si>
-  <si>
-    <t>Find Your Love</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>I'm more than just an option
@@ -2067,9 +2442,6 @@
 Then nothing's gonna tear us apart
 I bet if I give all my love
 Then nothing's gonna tear us apart</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
   </si>
   <si>
     <t>I know that we are young
@@ -2130,9 +2502,6 @@
 Just smoke my cigarette and hush
 Don't call my name, don't call my name, Roberto
 Alejandro</t>
-  </si>
-  <si>
-    <t>Ridin' Solo</t>
   </si>
   <si>
     <t>I'm feeling like a star, you can't stop my shine
@@ -2206,12 +2575,6 @@
 I'm ridin' solo, solo</t>
   </si>
   <si>
-    <t>Just A Dream</t>
-  </si>
-  <si>
-    <t>Nelly</t>
-  </si>
-  <si>
     <t>Uh, uh, uh
 I was thinking 'bout her, thinking 'bout me
 Thinking 'bout us, what we gon' beOpened my eyes yeah, it was only just a dream
@@ -2275,18 +2638,6 @@
 I realize yeah, it was only just a dream</t>
   </si>
   <si>
-    <t>How Low</t>
-  </si>
-  <si>
-    <t>Ludacris</t>
-  </si>
-  <si>
-    <t>Like A G6</t>
-  </si>
-  <si>
-    <t>Far*East Movement Featuring Cataracs &amp; Dev</t>
-  </si>
-  <si>
     <t>Popping bottles in the ice, like a blizzard
 When we drink we do it right gettin slizzard
 Sippin sizzurp in my ride, like Three 6Now I'm feeling so fly like a G6
@@ -2349,18 +2700,6 @@
 Now I'm feeling so fly like a G6</t>
   </si>
   <si>
-    <t>Carry Out</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Haven't Met You Yet</t>
-  </si>
-  <si>
-    <t>Michael Buble</t>
-  </si>
-  <si>
     <t>I'm not surprised, not everything lasts
 I've broken my heart so many times, I stopped keeping track
 Talk myself in, I talk myself outI get all worked up, then I let myself down
@@ -2405,12 +2744,6 @@
 Love, love, love, love (So do it, d'ayy, ayy)
 Love, love (Yeah yeah)
 I just haven't met you yet</t>
-  </si>
-  <si>
-    <t>Club Can't Handle Me</t>
-  </si>
-  <si>
-    <t>Flo Rida Featuring David Guetta</t>
   </si>
   <si>
     <t>You know I know how
@@ -2501,12 +2834,6 @@
 You know who shut em down!</t>
   </si>
   <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Jay Sean Featuring Lil Wayne</t>
-  </si>
-  <si>
     <t>Baby, are you down, down, down, down, down?
 Down, down
 Even if the sky is falling down?Down, down
@@ -2582,12 +2909,6 @@
 And the sky is falling down</t>
   </si>
   <si>
-    <t>Bulletproof</t>
-  </si>
-  <si>
-    <t>La Roux</t>
-  </si>
-  <si>
     <t>Been there, done that, messed around
 I'm having fun, don't put me down
 I'll never let you sweep me off my feetI won't let you in again
@@ -2623,9 +2944,6 @@
 This time, baby, I'll be bulletproof
 This time, baby, I'll be bulletproof
 This time, baby, I'll be bulletproof</t>
-  </si>
-  <si>
-    <t>Whatcha Say</t>
   </si>
   <si>
     <t>Wha-wha-wha-wha-what did she say?
@@ -2714,12 +3032,6 @@
 (Beluga Heights)</t>
   </si>
   <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Justin Bieber Featuring Ludacris</t>
-  </si>
-  <si>
     <t>Oh, woah
 Oh, woah
 Oh, woah, ohhYou know you love me, I know you care
@@ -2788,12 +3100,6 @@
 Gone, gone, I'm gone</t>
   </si>
   <si>
-    <t>Whataya Want From Me</t>
-  </si>
-  <si>
-    <t>Adam Lambert</t>
-  </si>
-  <si>
     <t>Hey, slow it down
 Whataya want from me?
 Whataya want from me?Yeah, I'm afraid
@@ -2848,12 +3154,6 @@
 Whataya want from me?
 Whataya want from me?
 Whataya want from me?</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
   </si>
   <si>
     <t>I don't like your little games
@@ -2926,9 +3226,6 @@
 Look what you just made me do</t>
   </si>
   <si>
-    <t>Only Girl (In The World)</t>
-  </si>
-  <si>
     <t>La-la-la la
 La-la-la la
 La-la-la la (Uh, yeah)La la la la
@@ -2986,18 +3283,6 @@
 Girl in the world
 Only girl in the world
 Girl in the world</t>
-  </si>
-  <si>
-    <t>Live Like We're Dying</t>
-  </si>
-  <si>
-    <t>Kris Allen</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Jeezy</t>
   </si>
   <si>
     <t>Yeah Yeah Yeah (Yeah Yeah Yeah)
@@ -3082,12 +3367,6 @@
 That I, I, I</t>
   </si>
   <si>
-    <t>Young Forever</t>
-  </si>
-  <si>
-    <t>Jay-Z + Mr. Hudson</t>
-  </si>
-  <si>
     <t>Let's dance in style, let's dance for a while
 Heaven can wait, we're only watching the skies
 Hoping for the best but expecting the worstAre you gonna drop the bomb or not?
@@ -3148,24 +3427,6 @@
 I'm painting you a portrait of Young
 Forever young, I wanna be forever young (forever young)
 Do you really want to live forever, forever, forever young!</t>
-  </si>
-  <si>
-    <t>Blah Blah Blah</t>
-  </si>
-  <si>
-    <t>Ke$ha Featuring 3OH!3</t>
-  </si>
-  <si>
-    <t>Bottoms Up</t>
-  </si>
-  <si>
-    <t>Trey Songz Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>Do You Remember</t>
-  </si>
-  <si>
-    <t>Jay Sean Featuring Sean Paul &amp; Lil Jon</t>
   </si>
   <si>
     <t>This one right here is for all the ladies
@@ -3261,12 +3522,6 @@
 Let's bring it back</t>
   </si>
   <si>
-    <t>All The Right Moves</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
-  </si>
-  <si>
     <t>All the right friends in all the right places
 So yeah, we're goin' down
 They got all the right moves in all the right facesSo yeah, we're goin' down
@@ -3324,12 +3579,6 @@
 Yeah we're going down
 They say all the right moves, hey
 Yeah we're going down, they say...</t>
-  </si>
-  <si>
-    <t>According To You</t>
-  </si>
-  <si>
-    <t>Orianthi</t>
   </si>
   <si>
     <t>According to you
@@ -3395,15 +3644,6 @@
 I can't do anything right</t>
   </si>
   <si>
-    <t>My Chick Bad</t>
-  </si>
-  <si>
-    <t>Ludacris Featuring Nicki Minaj</t>
-  </si>
-  <si>
-    <t>You Belong With Me</t>
-  </si>
-  <si>
     <t>You're on the phone with your girlfriend, she's upset
 She's going off about something that you said
 'Cause she doesn't get your humor like I doI'm in the room, it's a typical Tuesday night
@@ -3467,9 +3707,6 @@
 You belong with me</t>
   </si>
   <si>
-    <t>Meet Me Halfway</t>
-  </si>
-  <si>
     <t>Ooh, I can't go any further than this
 Ooh, I want you so badly, it's my biggest wishCool, I spend my time just thinkin', thinkin', thinkin' 'bout you
 Every single day, yes I'm really missin', missin' you
@@ -3521,9 +3758,6 @@
 Ooh, ooh, I want you so bad, it's my only wish
 Ooh, ooh, I can't go any further than this
 Ooh, ooh, I want you so bad, it's my only wish</t>
-  </si>
-  <si>
-    <t>Take It Off</t>
   </si>
   <si>
     <t>There's a place downtown
@@ -3599,9 +3833,6 @@
 Everybody take it off</t>
   </si>
   <si>
-    <t>Over</t>
-  </si>
-  <si>
     <t>I know way too many people here right now
 That I didn't know last year, who the fuck are y'all?
 I swear it feels like the last few nights we've been everywhere and backBut I just can't remember it all
@@ -3671,12 +3902,6 @@
 But it's far from over</t>
   </si>
   <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>Neon Trees</t>
-  </si>
-  <si>
     <t>Here we go again
 I kinda want to be more than friends
 So take it easy on meI'm afraid you're never satisfied
@@ -3742,12 +3967,6 @@
 What are you waiting for?
 What are you waiting for?
 Say goodbye to my heart tonight</t>
-  </si>
-  <si>
-    <t>Misery</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
   </si>
   <si>
     <t>Oh-yeah
@@ -3827,15 +4046,6 @@
 I'm gonna get you back</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>B.o.B Featuring Rivers Cuomo</t>
-  </si>
-  <si>
-    <t>Paparazzi</t>
-  </si>
-  <si>
     <t>We are the crowd
 We're c-coming out
 Got my flash on, it's trueNeed that picture of you
@@ -3897,12 +4107,6 @@
 Baby, you'll be famous
 Chase you down until you love me
 Papa-paparazzi</t>
-  </si>
-  <si>
-    <t>Tie Me Down</t>
-  </si>
-  <si>
-    <t>New Boyz Featuring Ray J</t>
   </si>
   <si>
     <t>Hey, Hey (aye, aye)
@@ -3977,12 +4181,6 @@
 You ain't gon' Tie Me Down.</t>
   </si>
   <si>
-    <t>Your Love</t>
-  </si>
-  <si>
-    <t>Nicki Minaj</t>
-  </si>
-  <si>
     <t>Shorty I'mma only tell you this once, you the illest
 And for your loving I'mma die hard like Bruce Willis
 You got spark, you, you got spunkYou, you got something all the girls want
@@ -4034,12 +4232,6 @@
 I'll be in the stars
 Find me in your heart
 I'm in need of your love</t>
-  </si>
-  <si>
-    <t>Party In The U.S.A.</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
   </si>
   <si>
     <t>I hopped off the plane at LAX
@@ -4107,12 +4299,6 @@
 Yeah (ha-ha-ha-ha), it's a party in the U.S.A.</t>
   </si>
   <si>
-    <t>Deuces</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Tyga &amp; Kevin McCall</t>
-  </si>
-  <si>
     <t>All that bullshit's for the birds
 You ain't nothin but a vultureAlways hopin for the worst
 Waiting for me to fuck up
@@ -4173,12 +4359,6 @@
 I'm moving on to something better, better, better
 No more tryin to make it work
 You made me wanna say bye bye, say bye bye, say bye bye to her</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
   </si>
   <si>
     <t>One, Two, Three
@@ -4270,12 +4450,6 @@
 Everybody loves... oh</t>
   </si>
   <si>
-    <t>Impossible</t>
-  </si>
-  <si>
-    <t>Shontelle</t>
-  </si>
-  <si>
     <t>I remember years ago
 Someone told me I should take
 Caution when it comes to loveI did, I did
@@ -4341,12 +4515,6 @@
 Someone told me I should take
 Caution when it comes to love
 I did</t>
-  </si>
-  <si>
-    <t>Forever</t>
-  </si>
-  <si>
-    <t>Drake Featuring Kanye West, Lil Wayne &amp; Eminem</t>
   </si>
   <si>
     <t>It may not mean nothin' to y'all
@@ -4468,12 +4636,6 @@
 I want this shit forever, man—ever, man—ever, man</t>
   </si>
   <si>
-    <t>Two Is Better Than One</t>
-  </si>
-  <si>
-    <t>Boys Like Girls Featuring Taylor Swift</t>
-  </si>
-  <si>
     <t>I remember what you wore on the first day
 You came into my life and I thought, hey
 You know this could be something'Cause everything you do and words you say
@@ -4515,12 +4677,6 @@
 But I figured out with all that's said and done
 Two is better than one
 Two is better than one</t>
-  </si>
-  <si>
-    <t>My First Kiss</t>
-  </si>
-  <si>
-    <t>3OH!3 Featuring Ke$ha</t>
   </si>
   <si>
     <t>My first kiss went a little like this
@@ -4609,12 +4765,6 @@
 Oooh-oooh-oooh-oooh</t>
   </si>
   <si>
-    <t>Already Gone</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
     <t>Remember all the things we wanted
 Now all our memories they're haunted
 We were always meant to say goodbyeEven with our fists held high, yeah
@@ -4673,9 +4823,6 @@
 I'm already gone, already gone
 There's no moving on
 So I'm already gone</t>
-  </si>
-  <si>
-    <t>Rock That Body</t>
   </si>
   <si>
     <t>I wanna rock right now
@@ -4772,9 +4919,6 @@
 I wanna -- I wanna rock right now!</t>
   </si>
   <si>
-    <t>Secrets</t>
-  </si>
-  <si>
     <t>I need another story
 Something to get off my chest
 My life gets kinda boringNeed something that I can confess
@@ -4833,12 +4977,6 @@
 All my secrets away</t>
   </si>
   <si>
-    <t>Naturally</t>
-  </si>
-  <si>
-    <t>Selena Gomez &amp; The Scene</t>
-  </si>
-  <si>
     <t>How you choose to express yourself
 It's all your own, and I can tell it comes naturally
 It comes naturallyYou follow what you feel inside
@@ -4883,12 +5021,6 @@
 Ba-ba-baby
 Naturally, naturally, naturally, naturally, naturally
 Everything, baby, comes naturally</t>
-  </si>
-  <si>
-    <t>Un-Thinkable (I'm Ready)</t>
-  </si>
-  <si>
-    <t>Alicia Keys</t>
   </si>
   <si>
     <t>Moment of honesty
@@ -4939,12 +5071,6 @@
 If you ask me I'm ready (I'm ready, I'm ready)
 If you ask me I'm ready (I'm ready, I'm ready)
 If you ask me I'm ready (I'm ready, I'm ready)</t>
-  </si>
-  <si>
-    <t>All I Do Is Win</t>
-  </si>
-  <si>
-    <t>DJ Khaled Featuring T-Pain, Ludacris, Snoop Dogg &amp; Rick Ross</t>
   </si>
   <si>
     <t>DJ Khaled
@@ -5023,12 +5149,6 @@
 And they stay there, up, down, up, down, up, down
 'Cause all I do is win, win, win
 And if you going in put your hands in the air, make 'em stay there!</t>
-  </si>
-  <si>
-    <t>I Made It (Cash Money Heroes)</t>
-  </si>
-  <si>
-    <t>Kevin Rudolf Featuring Birdman, Jay Sean, &amp; Lil Wayne</t>
   </si>
   <si>
     <t>Yeah, Cash Money Heroes
@@ -5124,24 +5244,6 @@
 I made it!</t>
   </si>
   <si>
-    <t>Stuck Like Glue</t>
-  </si>
-  <si>
-    <t>Sugarland</t>
-  </si>
-  <si>
-    <t>Hey Daddy (Daddy's Home)</t>
-  </si>
-  <si>
-    <t>Usher Featuring Plies</t>
-  </si>
-  <si>
-    <t>There Goes My Baby</t>
-  </si>
-  <si>
-    <t>Usher</t>
-  </si>
-  <si>
     <t>There goes my baby
 (Oo girl look at you)
 You don't know how good it feels to call you my girlThere goes my baby
@@ -5211,9 +5313,6 @@
 Oo girl look at you</t>
   </si>
   <si>
-    <t>Today Was A Fairytale</t>
-  </si>
-  <si>
     <t>Today was a fairytale
 You were the prince
 I used to be a damsel in distressYou took me by the hand
@@ -5277,12 +5376,6 @@
 Today was a fairytale</t>
   </si>
   <si>
-    <t>Say Something</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring Drake</t>
-  </si>
-  <si>
     <t>I'll be your light, your match, your burning sun
 I'll be the bright in black that's makin' you run
 And we'll feel alright, and we'll feel alright'Cause we'll work it out, yeah, we'll work it out
@@ -5333,12 +5426,6 @@
 'Til the love runs out</t>
   </si>
   <si>
-    <t>Sweet Dreams</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
-  </si>
-  <si>
     <t>Turn the lights on!
 Every night I rush to my bedWith hopes that maybe I'll get a chance to see you
 When I close my eyes I'm going out of my head
@@ -5389,12 +5476,6 @@
 Either way I don't wanna wake up from you</t>
   </si>
   <si>
-    <t>Use Somebody</t>
-  </si>
-  <si>
-    <t>Kings Of Leon</t>
-  </si>
-  <si>
     <t>I've been roaming around
 Always looking down at all I see
 Painted faces fill the places I can't reachYou know that I could use somebody
@@ -5433,12 +5514,6 @@
 Somebody
 I've been roaming around
 Always looking down at all I see</t>
-  </si>
-  <si>
-    <t>Undo It</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
   </si>
   <si>
     <t>Should've known by the way you passed me by
@@ -5490,12 +5565,6 @@
 Took the lonely and took me for a ride (na, na, na, na, na)
 Boy, you blew it, you put me through it (na, na, na, na, na)
 I wanna un-un-un-un-un-undo it</t>
-  </si>
-  <si>
-    <t>Eenie Meenie</t>
-  </si>
-  <si>
-    <t>Sean Kingston &amp; Justin Bieber</t>
   </si>
   <si>
     <t>Eenie meenie miney mo
@@ -5562,12 +5631,6 @@
 Shawty is an eenie meenie miney mo lover'
 Shawty is an eenie meenie miney mo lover'
 Oh</t>
-  </si>
-  <si>
-    <t>Right Above It</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Drake</t>
   </si>
   <si>
     <t>Now tell me how you love it
@@ -5657,12 +5720,6 @@
 Young Mu-Young Mula baby</t>
   </si>
   <si>
-    <t>The House That Built Me</t>
-  </si>
-  <si>
-    <t>Miranda Lambert</t>
-  </si>
-  <si>
     <t>I know they say you can't go home again
 I just had to come back one last time
 Ma'am I know you don't know me from AdamBut these hand prints on the front steps are mine
@@ -5700,12 +5757,6 @@
 If I could walk around I swear I'll leave
 Won't take nothing but a memory
 From the house that built me</t>
-  </si>
-  <si>
-    <t>If I Die Young</t>
-  </si>
-  <si>
-    <t>The Band Perry</t>
   </si>
   <si>
     <t>If I die young, bury me in satin
@@ -5752,12 +5803,6 @@
 So put on your best boys, and I'll wear my pearls</t>
   </si>
   <si>
-    <t>The Only Exception</t>
-  </si>
-  <si>
-    <t>Paramore</t>
-  </si>
-  <si>
     <t>When I was younger I saw my daddy cry
 And curse at the wind
 He broke his own heart and I watchedAs he tried to reassemble it
@@ -5796,9 +5841,6 @@
 You are the only exception
 And I'm on my way to believing
 Oh, and I'm on my way to believing</t>
-  </si>
-  <si>
-    <t>American Honey</t>
   </si>
   <si>
     <t>She grew up on the side of the road
@@ -5847,18 +5889,6 @@
 And american honey</t>
   </si>
   <si>
-    <t>King Of Anything</t>
-  </si>
-  <si>
-    <t>Sara Bareilles</t>
-  </si>
-  <si>
-    <t>Life After You</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
     <t>Ten miles from town and I just broke down
 Spittin' out smoke on the side of the road
 I'm out here alone just tryin' to get homeTo tell you I was wrong but you already know
@@ -5899,12 +5929,6 @@
 Know there's no life after you
 Know there's no life after you
 Know there's no life after you, yeah</t>
-  </si>
-  <si>
-    <t>Smile</t>
-  </si>
-  <si>
-    <t>Uncle Kracker</t>
   </si>
   <si>
     <t>You're better than the best
@@ -5956,12 +5980,6 @@
 Oh, you make me smile
 (Oh, you make me smile)
 Oh, you make me smile</t>
-  </si>
-  <si>
-    <t>Teach Me How To Dougie</t>
-  </si>
-  <si>
-    <t>Cali Swag District</t>
   </si>
   <si>
     <t>Aye! aye!
@@ -6061,9 +6079,6 @@
 You ain't fuckin with my dougie!</t>
   </si>
   <si>
-    <t>Try Sleeping With A Broken Heart</t>
-  </si>
-  <si>
     <t>Even if you were a million miles away
 I can still feel you in my bed
 Near me, touch me, feel meAnd even at the bottom of the sea
@@ -6098,12 +6113,6 @@
 I'm gonna hold on to the times that we had
 Tonight, I'm gonna find a way to make it without you
 Oh Lord</t>
-  </si>
-  <si>
-    <t>Lover, Lover</t>
-  </si>
-  <si>
-    <t>Jerrod Niemann</t>
   </si>
   <si>
     <t>Well, the truth, well, it hurts to say
@@ -6157,16 +6166,300 @@
 Lover, lover, lover
 You don't treat me good no more</t>
   </si>
+  <si>
+    <t>Yes, I can see her
+'Cause every girl in here wanna be her
+Oh, she's a diva
+I feel the same and I wanna meet her
+They say she low down
+It's just a rumor and I don't believe 'em
+They say she needs to slow down
+The baddest thing around town
+She's nothing like a girl you've ever seen before
+Nothing you can compare to your neighborhood
+I'm tryna find the words to describe this girl
+Without being disrespectful
+The way that booty movin' I can't take no more
+Have to stop what I'm doin' so I can pull her close
+I'm tryna find the words to describe this girl
+Without being disrespectful
+Damn girl
+Damn, you's a sexy chick
+A sexy chick
+Damn, you's a sexy chick
+A sexy chick
+Damn girl
+Damn, you's a sexy chick
+A sexy chick
+Damn, you's a sexy chick
+Damn girl
+Yes, I can see her
+'Cause every girl in here wanna be her
+Oh, she's a diva
+I feel the same and I wanna meet her
+They say she low down
+It's just a rumor and I don't believe 'em
+They say she needs to slow down
+The baddest thing around town
+She's nothing like a girl you've ever seen before
+Nothing you can compare to your neighborhood
+I'm tryna find the words to describe this girl
+Without being disrespectful
+The way that booty movin' I can't take no more
+Have to stop what I'm doin' so I can pull her close
+I'm tryna find the words to describe this girl
+Without being disrespectful
+Damn girl
+Damn, you's a sexy chick
+A sexy chick
+Damn you's a sexy chick
+Damn girl
+Damn you's a sexy chick
+A sexy chick
+Damn you's a sexy chick
+Damn girl
+Damn, you's a sexy chick
+A sexy chick
+Damn, you's a sexy chick
+Damn girl
+Damn, you's a sexy chick
+A sexy chick
+Damn, you's a sexy chick
+Damn, you's a sexy chick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's go!
+Hey, when I give you these keys homboy don't move my car man
+I'm right in the front ya dig
+Don't move my shit man
+Whoa baby what's your name
+Go girl its ya birthday
+Open wide I know you're thirsty
+Say ahhh
+Say ahhh
+And we don't buy no drinks at the bar
+Pop champagne cause we got that dough
+Let me hear you say ahhh
+You want me say ahhh
+Pocket full of money
+Club don't jump
+Till I walk inside the doorway
+Bottles of that Rosé
+Smelling like Dolce and Gabanna
+Shorty you the baddest and to meet you is an honor (Lil Mama)
+I got a table waiting what you think about a convo
+But if you like it baby we could take it to the condo
+And if you like the condo
+We could move the party to the bedroom
+I'm a beat your body like a congo
+Since we in the club for now
+Might as well get another round
+I notice it aint nothing in your cup
+So get here baby let me fill it up, fill it up
+Go girl its ya birthday
+Open wide I know you're thirsty
+Say ahhh
+Say ahhh
+And we don't buy no drinks at the bar
+Pop champagne cause we got that dough
+Let me hear you say ahhh
+You want me say ahhh
+Shorty dance like a video vixen
+Said her man be on that bullshit pimpin
+Well I retired from the bull like Pippen
+Try to get you home or would you be Marge Simpson
+Whip out front we can leave like pronto
+Maple leave glass got you feeling like Toronto
+Make your body rise like your puffing on a joint though
+Girl that's only if you want tho
+Since we in the club for now
+Might as well get another round
+I notice it aint nothing in your cup
+So get here baby let me fill it up, fill it up
+Go girl its ya birthday
+Open wide I know you're thirsty
+Say ahhh
+Say ahhh
+And we don't buy no drinks at the bar
+Pop champagne cause we got that dough
+Let me hear you say ahhh
+You want me say ahhh
+Go girl its ya birthday
+Open wide I know you're thirsty
+Say ahhh
+Say ahhh
+And we don't buy no drinks at the bar
+Pop champagne cause we got that dough
+Let me hear you say ahhh
+You want me say ahhh
+Go! Go! Go! Go!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+She could go lower than I ever really thought she could
+Face down, ass up!
+The top of your booty jiggling out your jeans
+Baby pull your pants up
+I like it when I see you do it
+Better than I've ever seen it done before
+A lot of women drop it to the ground
+But how low can you go?
+Lower than your mama's ever seen it in her life time
+Never would've imagined did not even in her right mind
+Practice in front of that mirror
+Now you doing it on the dance floor
+Mad cause I can't get wit ya chick just show me how to dance (OH!)
+I may not wanna get low so I post it up kinda like a playa do
+But if you come to the crib
+Then I might show you girls a thang or two
+Yea I think you a superstar wit a ass like that you gotta blow
+Before you make it big
+There's just one thing that I gotta know
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+I be like Nick-nac-paddywac
+Oh where my kitty cat give a dog a bone
+How many licks does it takes till I get to the center and let a realer nigga take you home
+I could make me show stop
+Soon as you hear this flow pop
+From A-T-L-A-N-T-A and all the way down to your drop
+Put the needle on a record and I make her get lower than a Lamborghini
+And if she really gettin low then Ima shoot a video and put it all on TV
+Cuz I like that French vanilla and the caramel
+But when it comes to chocolate
+I know that very well
+Asian persuasion
+No discrimination
+I love how they seem to please us
+I wanna taste them butterican pecan peanut buttercups like Reese's Pieces
+Cause I think you a superstar
+With a ass like that you gotta blow
+Before you make it big
+Well there just one thing that I gotta know
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Drop it, hit it, dump it, split it
+Don't stop (Get it, get it)
+Put it on reverse just to back it up
+Let me put some Luda in it
+Show me what you workin wit
+I'll show you some of this bank roll
+Yea you a superstar there's just one thing I gotta know so
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+How low can you go?
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know
+Go low, (Go low) lower than you know</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep drinking coffee, stare me down across the table
+While I look outside
+So many things I'd say if only I were able
+But I just keep quiet and count the cars that pass by
+You've got opinions, man
+We're all entitled to 'em
+But I never asked
+So let me thank you for your time
+And try not to waste any more of mine
+Get out of here fast
+I hate to break it to you babe
+But I'm not drowning
+There's no one here to save
+Who cares if you disagree? You are not me
+Who made you king of anything?
+So, you dare tell me who to be
+Who died and made you king of anything?
+You sound so innocent
+All full of good intent
+Swear you know best
+But you expect me to
+Jump up onboard with you
+Ride off into your delusional sunset
+I'm not the one who's lost
+With no direction, oh
+But you'll never see
+You're so busy making maps
+With my name on it in all caps
+You've got the talking down
+Just not the listening
+Who cares if you disagree? You are not me
+Who made you king of anything?
+So you dare tell me who to be
+Who died and made you king of anything?
+All my life I've tried
+To make everybody happy while I just hurt and hide
+Waiting for someone to tell me it's my turn
+To decide
+Who cares if you disagree? You are not me
+Who made you king of anything?
+So you dare tell me who to be
+Who died and made you king of anything?
+Who cares if you disagree? You are not me
+Who made you king of anything?
+So you dare tell me who to be
+Who died and made you king of anything?
+Let me hold your crown, babe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6174,8 +6467,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6187,7 +6487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6195,24 +6495,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6254,7 +6580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6286,9 +6612,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6320,6 +6664,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6495,1072 +6857,1683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>268</v>
+      </c>
+      <c r="E97">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="C100" t="s">
         <v>186</v>
       </c>
-      <c r="B70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="D100" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100">
         <v>201</v>
       </c>
-      <c r="B75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" t="s">
-        <v>212</v>
-      </c>
-      <c r="C79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>238</v>
-      </c>
-      <c r="B89" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" t="s">
-        <v>242</v>
-      </c>
-      <c r="C90" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>244</v>
-      </c>
-      <c r="B91" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>247</v>
-      </c>
-      <c r="B92" t="s">
-        <v>248</v>
-      </c>
-      <c r="C92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>250</v>
-      </c>
-      <c r="B93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>253</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>257</v>
-      </c>
-      <c r="B96" t="s">
-        <v>258</v>
-      </c>
-      <c r="C96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>268</v>
-      </c>
-      <c r="B100" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" t="s">
-        <v>270</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>